--- a/doc/plan/TaskDivisionMember.xlsx
+++ b/doc/plan/TaskDivisionMember.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="105" windowWidth="14806" windowHeight="8012"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>REQUIREMENT</t>
   </si>
@@ -60,12 +60,21 @@
   </si>
   <si>
     <t xml:space="preserve">Design layout </t>
+  </si>
+  <si>
+    <t>UTA, Requirment</t>
+  </si>
+  <si>
+    <t>XML and JAVA</t>
+  </si>
+  <si>
+    <t>Design Demo code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,10 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,12 +172,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -180,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,12 +490,12 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:P18"/>
+      <selection activeCell="U19" sqref="U19:W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -520,7 +535,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -548,7 +563,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -558,613 +573,620 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="7">
+        <v>100</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="7">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E19:H22"/>
-    <mergeCell ref="I19:L22"/>
-    <mergeCell ref="M19:P22"/>
-    <mergeCell ref="Q19:T22"/>
-    <mergeCell ref="U19:W22"/>
-    <mergeCell ref="X19:Z22"/>
-    <mergeCell ref="Q15:T18"/>
-    <mergeCell ref="U3:W6"/>
-    <mergeCell ref="X3:Z6"/>
-    <mergeCell ref="U7:W10"/>
-    <mergeCell ref="X7:Z10"/>
-    <mergeCell ref="U11:W14"/>
-    <mergeCell ref="X11:Z14"/>
-    <mergeCell ref="U15:W18"/>
-    <mergeCell ref="X15:Z18"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="Q1:T2"/>
+    <mergeCell ref="I7:L10"/>
+    <mergeCell ref="M7:P10"/>
+    <mergeCell ref="Q7:T10"/>
+    <mergeCell ref="M15:P18"/>
+    <mergeCell ref="A3:D6"/>
+    <mergeCell ref="A7:D10"/>
+    <mergeCell ref="A11:D14"/>
     <mergeCell ref="U1:W2"/>
     <mergeCell ref="X1:Z2"/>
     <mergeCell ref="A19:D22"/>
@@ -1181,18 +1203,21 @@
     <mergeCell ref="M3:P6"/>
     <mergeCell ref="Q3:T6"/>
     <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I7:L10"/>
-    <mergeCell ref="M7:P10"/>
-    <mergeCell ref="Q7:T10"/>
-    <mergeCell ref="M15:P18"/>
-    <mergeCell ref="A3:D6"/>
-    <mergeCell ref="A7:D10"/>
-    <mergeCell ref="A11:D14"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="Q1:T2"/>
+    <mergeCell ref="X19:Z22"/>
+    <mergeCell ref="Q15:T18"/>
+    <mergeCell ref="U3:W6"/>
+    <mergeCell ref="X3:Z6"/>
+    <mergeCell ref="U7:W10"/>
+    <mergeCell ref="X7:Z10"/>
+    <mergeCell ref="U11:W14"/>
+    <mergeCell ref="X11:Z14"/>
+    <mergeCell ref="U15:W18"/>
+    <mergeCell ref="X15:Z18"/>
+    <mergeCell ref="E19:H22"/>
+    <mergeCell ref="I19:L22"/>
+    <mergeCell ref="M19:P22"/>
+    <mergeCell ref="Q19:T22"/>
+    <mergeCell ref="U19:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1204,7 +1229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1216,7 +1241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/plan/TaskDivisionMember.xlsx
+++ b/doc/plan/TaskDivisionMember.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>REQUIREMENT</t>
   </si>
@@ -68,7 +68,19 @@
     <t>XML and JAVA</t>
   </si>
   <si>
-    <t>Design Demo code</t>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>JAVA and XML layout</t>
+  </si>
+  <si>
+    <t>Design Demo Code</t>
+  </si>
+  <si>
+    <t>Design Code and Layout</t>
+  </si>
+  <si>
+    <t>Design source code</t>
   </si>
 </sst>
 </file>
@@ -161,13 +173,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,7 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -490,78 +501,78 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19:W22"/>
+      <selection activeCell="A19" sqref="A19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -570,120 +581,120 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="7">
-        <v>100</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -692,112 +703,118 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -806,112 +823,118 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -920,112 +943,118 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1034,120 +1063,120 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="7">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="6">
         <v>1</v>
       </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1175,18 +1204,21 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="Q1:T2"/>
-    <mergeCell ref="I7:L10"/>
-    <mergeCell ref="M7:P10"/>
-    <mergeCell ref="Q7:T10"/>
-    <mergeCell ref="M15:P18"/>
-    <mergeCell ref="A3:D6"/>
-    <mergeCell ref="A7:D10"/>
-    <mergeCell ref="A11:D14"/>
+    <mergeCell ref="E19:H22"/>
+    <mergeCell ref="I19:L22"/>
+    <mergeCell ref="M19:P22"/>
+    <mergeCell ref="Q19:T22"/>
+    <mergeCell ref="U19:W22"/>
+    <mergeCell ref="X19:Z22"/>
+    <mergeCell ref="Q15:T18"/>
+    <mergeCell ref="U3:W6"/>
+    <mergeCell ref="X3:Z6"/>
+    <mergeCell ref="U7:W10"/>
+    <mergeCell ref="X7:Z10"/>
+    <mergeCell ref="U11:W14"/>
+    <mergeCell ref="X11:Z14"/>
+    <mergeCell ref="U15:W18"/>
+    <mergeCell ref="X15:Z18"/>
     <mergeCell ref="U1:W2"/>
     <mergeCell ref="X1:Z2"/>
     <mergeCell ref="A19:D22"/>
@@ -1203,21 +1235,18 @@
     <mergeCell ref="M3:P6"/>
     <mergeCell ref="Q3:T6"/>
     <mergeCell ref="E7:H10"/>
-    <mergeCell ref="X19:Z22"/>
-    <mergeCell ref="Q15:T18"/>
-    <mergeCell ref="U3:W6"/>
-    <mergeCell ref="X3:Z6"/>
-    <mergeCell ref="U7:W10"/>
-    <mergeCell ref="X7:Z10"/>
-    <mergeCell ref="U11:W14"/>
-    <mergeCell ref="X11:Z14"/>
-    <mergeCell ref="U15:W18"/>
-    <mergeCell ref="X15:Z18"/>
-    <mergeCell ref="E19:H22"/>
-    <mergeCell ref="I19:L22"/>
-    <mergeCell ref="M19:P22"/>
-    <mergeCell ref="Q19:T22"/>
-    <mergeCell ref="U19:W22"/>
+    <mergeCell ref="I7:L10"/>
+    <mergeCell ref="M7:P10"/>
+    <mergeCell ref="Q7:T10"/>
+    <mergeCell ref="M15:P18"/>
+    <mergeCell ref="A3:D6"/>
+    <mergeCell ref="A7:D10"/>
+    <mergeCell ref="A11:D14"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="Q1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
